--- a/sitemap.xlsx
+++ b/sitemap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\node_template_engine\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4F635-6FF4-4790-ADD1-465A1FBC6D2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -98,14 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>template</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template2.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/foo/qux</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,10 +128,6 @@
   </si>
   <si>
     <t>タイトル corge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skip</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -153,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -519,10 +508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -534,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -542,36 +533,29 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -585,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -596,10 +580,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -610,19 +594,16 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
@@ -630,16 +611,13 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/sitemap.xlsx
+++ b/sitemap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4F635-6FF4-4790-ADD1-465A1FBC6D2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A162602-03A8-4B6A-A168-B0EECEAAA7CC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル foo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>/bar/quux/grault.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
